--- a/11-text-mining/data/rate-changes.xlsx
+++ b/11-text-mining/data/rate-changes.xlsx
@@ -354,9 +354,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -566,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B76" si="0">B3+1</f>
+        <f t="shared" ref="B15:B75" si="0">B3+1</f>
         <v>2012</v>
       </c>
       <c r="C15">
@@ -791,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <f>B19+1</f>
+        <f t="shared" ref="B30:B36" si="1">B19+1</f>
         <v>2013</v>
       </c>
       <c r="C30">
@@ -806,7 +808,7 @@
         <v>7</v>
       </c>
       <c r="B31">
-        <f>B20+1</f>
+        <f t="shared" si="1"/>
         <v>2013</v>
       </c>
       <c r="C31">
@@ -821,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="B32">
-        <f>B21+1</f>
+        <f t="shared" si="1"/>
         <v>2013</v>
       </c>
       <c r="C32">
@@ -836,7 +838,7 @@
         <v>9</v>
       </c>
       <c r="B33">
-        <f>B22+1</f>
+        <f t="shared" si="1"/>
         <v>2013</v>
       </c>
       <c r="C33">
@@ -851,7 +853,7 @@
         <v>10</v>
       </c>
       <c r="B34">
-        <f>B23+1</f>
+        <f t="shared" si="1"/>
         <v>2013</v>
       </c>
       <c r="C34">
@@ -866,7 +868,7 @@
         <v>11</v>
       </c>
       <c r="B35">
-        <f>B24+1</f>
+        <f t="shared" si="1"/>
         <v>2013</v>
       </c>
       <c r="C35">
@@ -881,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="B36">
-        <f>B25+1</f>
+        <f t="shared" si="1"/>
         <v>2013</v>
       </c>
       <c r="C36">
@@ -1151,10 +1153,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f>B44+1</f>
         <v>2015</v>
       </c>
       <c r="C55">
@@ -1166,10 +1168,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f>B45+1</f>
         <v>2015</v>
       </c>
       <c r="C56">
@@ -1181,10 +1183,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f>B46+1</f>
         <v>2015</v>
       </c>
       <c r="C57">
@@ -1196,10 +1198,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f>B47+1</f>
         <v>2015</v>
       </c>
       <c r="C58">
@@ -1211,10 +1213,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f>B48+1</f>
         <v>2015</v>
       </c>
       <c r="C59">
@@ -1226,11 +1228,11 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
-        <v>2015</v>
+        <f>B49+1</f>
+        <v>2016</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1241,10 +1243,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f>B50+1</f>
         <v>2016</v>
       </c>
       <c r="C61">
@@ -1256,10 +1258,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f>B51+1</f>
         <v>2016</v>
       </c>
       <c r="C62">
@@ -1271,10 +1273,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f>B52+1</f>
         <v>2016</v>
       </c>
       <c r="C63">
@@ -1286,10 +1288,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f>B53+1</f>
         <v>2016</v>
       </c>
       <c r="C64">
@@ -1301,10 +1303,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
+        <f>B54+1</f>
         <v>2016</v>
       </c>
       <c r="C65">
@@ -1316,11 +1318,11 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>6</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="0"/>
-        <v>2016</v>
+        <v>7</v>
+      </c>
+      <c r="B66" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1331,7 +1333,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <f t="shared" si="0"/>
@@ -1346,7 +1348,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B68">
         <f t="shared" si="0"/>
@@ -1361,7 +1363,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B69">
         <f t="shared" si="0"/>
@@ -1376,7 +1378,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B70">
         <f t="shared" si="0"/>
@@ -1391,7 +1393,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B71">
         <f t="shared" si="0"/>
@@ -1406,11 +1408,11 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B72">
         <f t="shared" si="0"/>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1421,7 +1423,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73">
         <f t="shared" si="0"/>
@@ -1436,7 +1438,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B74">
         <f t="shared" si="0"/>
@@ -1451,7 +1453,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B75">
         <f t="shared" si="0"/>
@@ -1466,10 +1468,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B76">
-        <f t="shared" si="0"/>
+        <f>B65+1</f>
         <v>2017</v>
       </c>
       <c r="C76">
@@ -1481,11 +1483,11 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>6</v>
-      </c>
-      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="B77" t="e">
         <f>B66+1</f>
-        <v>2017</v>
+        <v>#REF!</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1496,10 +1498,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B78">
-        <f>B67+1</f>
+        <f>B68+1</f>
         <v>2017</v>
       </c>
       <c r="C78">
@@ -1511,10 +1513,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B79">
-        <f>B69+1</f>
+        <f>B70+1</f>
         <v>2017</v>
       </c>
       <c r="C79">
@@ -1526,7 +1528,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B80">
         <f>B71+1</f>
@@ -1536,21 +1538,6 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>12</v>
-      </c>
-      <c r="B81">
-        <f>B72+1</f>
-        <v>2017</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
         <v>0</v>
       </c>
     </row>
